--- a/Update.xlsx
+++ b/Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>الكاتب</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -410,6 +410,9 @@
   </si>
   <si>
     <t>Code create_db.php &amp; drop_db.php file</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -423,7 +426,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -431,7 +434,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -439,7 +442,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -559,7 +562,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,18 +851,18 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.59765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="2"/>
+    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="2"/>
+    <col min="7" max="7" width="19.8984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -882,6 +885,9 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>36</v>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>الكاتب</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -148,19 +148,17 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>الكاتب:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
           </rPr>
           <t xml:space="preserve">
-make function to restore the backup database from PC</t>
+functions to make ready queries</t>
         </r>
       </text>
     </comment>
@@ -174,7 +172,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -184,7 +182,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-contain form with the oppening fund for COM and button</t>
+make function to restore the backup database from PC</t>
         </r>
       </text>
     </comment>
@@ -198,7 +196,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -208,7 +206,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-add fund to database from the form</t>
+contain form with the oppening fund for COM and button</t>
         </r>
       </text>
     </comment>
@@ -222,7 +220,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -232,8 +230,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-form contain account details and address and fund input fields
-</t>
+add fund to database from the form</t>
         </r>
       </text>
     </comment>
@@ -247,7 +244,32 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+form contain account details and address and fund input fields
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -266,7 +288,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -413,6 +435,12 @@
   </si>
   <si>
     <t>S+R</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>make sql_queries.php file</t>
   </si>
 </sst>
 </file>
@@ -422,11 +450,11 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -434,7 +462,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -442,7 +470,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -458,6 +486,17 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
     </font>
   </fonts>
   <fills count="6">
@@ -540,7 +579,21 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -562,7 +615,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -848,21 +901,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A31" sqref="A31:A38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="2"/>
-    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="2"/>
-    <col min="7" max="7" width="19.8984375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="2"/>
+    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -877,10 +930,11 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="10">
-        <f>DATE(2021,12,14)</f>
-        <v>44544</v>
+        <f>DATE(2021,12,15)</f>
+        <v>44545</v>
       </c>
       <c r="B2" s="5">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -902,12 +956,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="2">
-        <f>B2+1</f>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
@@ -919,14 +976,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:B39" si="0">B3+1</f>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -936,7 +993,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
@@ -950,12 +1007,15 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="2">
-        <f>B5+1</f>
+      <c r="B6" s="5">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>41</v>
@@ -963,347 +1023,372 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="2">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>34</v>
+      <c r="C7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="2">
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="2">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="5">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <f>DATE(2021,12,15)</f>
-        <v>44545</v>
-      </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
+        <f>DATE(2021,12,16)</f>
+        <v>44546</v>
+      </c>
+      <c r="B13" s="5">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="2">
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="2">
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="2">
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="2">
+      <c r="B17" s="5">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="2">
+      <c r="B18" s="5">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="2">
+      <c r="B19" s="5">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="2">
+      <c r="B20" s="5">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="5">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <f>DATE(2021,12,16)</f>
-        <v>44546</v>
-      </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
+        <f>DATE(2021,12,18)</f>
+        <v>44548</v>
+      </c>
+      <c r="B22" s="5">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="2">
+      <c r="B23" s="5">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="2">
+      <c r="B24" s="5">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="2">
+      <c r="B25" s="5">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="2">
+      <c r="B26" s="5">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="2">
+      <c r="B27" s="5">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="2">
+      <c r="B28" s="5">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="2">
+      <c r="B29" s="5">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="5">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <f>DATE(2021,12,18)</f>
-        <v>44548</v>
-      </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
+        <f>DATE(2021,12,19)</f>
+        <v>44549</v>
+      </c>
+      <c r="B31" s="5">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="2">
+      <c r="B32" s="5">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="B33" s="2">
+      <c r="B33" s="5">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="2">
+      <c r="B34" s="5">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
-      <c r="B35" s="2">
+      <c r="B35" s="5">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="2">
+      <c r="B36" s="5">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="2">
+      <c r="B37" s="5">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="5">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+      <c r="B39" s="5">
         <f t="shared" si="0"/>
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="5">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="5">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="5">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>الكاتب</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -88,31 +88,6 @@
           </rPr>
           <t xml:space="preserve">
 script : after click a button from select_db form it will take the name fom input to create a database</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C5" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>الكاتب:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-script : make action to select the DB that choosed from select_db file and alter setting file
-</t>
         </r>
       </text>
     </comment>
@@ -126,7 +101,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -136,7 +111,8 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-make function to backup current database with name</t>
+script : make action to select the DB that choosed from select_db file and alter setting file
+</t>
         </r>
       </text>
     </comment>
@@ -150,7 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -160,7 +136,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-make function to restore the backup database from PC</t>
+make function to backup current database with name</t>
         </r>
       </text>
     </comment>
@@ -174,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -184,7 +160,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-contain form with the oppening fund for COM and button</t>
+make function to restore the backup database from PC</t>
         </r>
       </text>
     </comment>
@@ -198,7 +174,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -208,7 +184,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-add fund to database from the form</t>
+contain form with the oppening fund for COM and button</t>
         </r>
       </text>
     </comment>
@@ -222,7 +198,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -232,8 +208,7 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-form contain account details and address and fund input fields
-</t>
+add fund to database from the form</t>
         </r>
       </text>
     </comment>
@@ -247,7 +222,32 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+form contain account details and address and fund input fields
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -416,6 +416,12 @@
   </si>
   <si>
     <t>S</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Code sql_queries.php</t>
   </si>
 </sst>
 </file>
@@ -429,7 +435,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -437,7 +443,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -445,7 +451,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -507,7 +513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -539,11 +545,35 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="4">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -565,7 +595,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -851,21 +881,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K39"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="2"/>
-    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="2"/>
-    <col min="7" max="7" width="19.8984375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="2"/>
+    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -884,6 +914,7 @@
         <v>44544</v>
       </c>
       <c r="B2" s="5">
+        <f>ROW()-1</f>
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
@@ -905,12 +936,15 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="10"/>
-      <c r="B3" s="2">
-        <f>B2+1</f>
+      <c r="B3" s="1">
+        <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="1" t="s">
         <v>2</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>37</v>
@@ -922,14 +956,14 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="10"/>
-      <c r="B4" s="5">
-        <f t="shared" ref="B4:B39" si="0">B3+1</f>
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G4" s="2" t="s">
@@ -939,377 +973,403 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="10"/>
-      <c r="B5" s="2">
+      <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" s="1"/>
+      <c r="C5" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="10"/>
-      <c r="B6" s="2">
-        <f>B5+1</f>
+      <c r="B6" s="11">
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>41</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
-      <c r="B7" s="2">
+      <c r="B7" s="11">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>34</v>
+        <v>12</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="5">
+      <c r="B8" s="11">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>49</v>
+      <c r="C8" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="10"/>
-      <c r="B9" s="2">
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>46</v>
+      <c r="C9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="10"/>
-      <c r="B10" s="2">
+      <c r="B10" s="11">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
-      <c r="B11" s="2">
+      <c r="B11" s="11">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="C11" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="10">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
       </c>
-      <c r="B12" s="2">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-      <c r="C12" s="2" t="s">
+      <c r="B13" s="11">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="2">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="10"/>
-      <c r="B14" s="2">
+      <c r="B14" s="11">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
-      <c r="B15" s="2">
+      <c r="B15" s="11">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
-      <c r="B16" s="2">
+      <c r="B16" s="11">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="10"/>
-      <c r="B17" s="2">
+      <c r="B17" s="11">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
-      <c r="B18" s="2">
+      <c r="B18" s="11">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
-      <c r="B19" s="2">
+      <c r="B19" s="11">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
-      <c r="B20" s="2">
+      <c r="B20" s="11">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="C20" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="10">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
       </c>
-      <c r="B21" s="2">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="C21" s="2" t="s">
+      <c r="B22" s="11">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10"/>
-      <c r="B22" s="2">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
-      <c r="B23" s="2">
+      <c r="B23" s="11">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
-      <c r="B24" s="2">
+      <c r="B24" s="11">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="10"/>
-      <c r="B25" s="2">
+      <c r="B25" s="11">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="10"/>
-      <c r="B26" s="2">
+      <c r="B26" s="11">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="10"/>
-      <c r="B27" s="2">
+      <c r="B27" s="11">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="10"/>
-      <c r="B28" s="2">
+      <c r="B28" s="11">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
-      <c r="B29" s="2">
+      <c r="B29" s="11">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="C29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="10">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
       </c>
-      <c r="B30" s="2">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="11">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="2">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
-      <c r="B32" s="2">
+      <c r="B32" s="11">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="10"/>
-      <c r="B33" s="2">
+      <c r="B33" s="11">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="10"/>
-      <c r="B34" s="2">
+      <c r="B34" s="11">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="10"/>
-      <c r="B35" s="2">
+      <c r="B35" s="11">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
-      <c r="B36" s="2">
+      <c r="B36" s="11">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
-      <c r="B37" s="2">
+      <c r="B37" s="11">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
       <c r="C37" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+      <c r="B38" s="11">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38" s="2">
-        <f t="shared" si="0"/>
-        <v>37</v>
-      </c>
-    </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="2">
+      <c r="B39" s="11">
         <f t="shared" si="0"/>
         <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <f>ROW()-1</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <f t="shared" si="0"/>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A37"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="A13:A21"/>
+    <mergeCell ref="A22:A30"/>
+    <mergeCell ref="A31:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -412,7 +412,7 @@
     <t>Code create_db.php &amp; drop_db.php file</t>
   </si>
   <si>
-    <t>S</t>
+    <t>S+R</t>
   </si>
 </sst>
 </file>
@@ -851,7 +851,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -880,13 +880,13 @@
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="5">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>48</v>
       </c>
       <c r="G2" s="2" t="s">

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -413,6 +413,9 @@
   </si>
   <si>
     <t>S+R</t>
+  </si>
+  <si>
+    <t>S</t>
   </si>
 </sst>
 </file>
@@ -851,7 +854,7 @@
   <dimension ref="A1:K39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -973,12 +976,15 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="10"/>
-      <c r="B8" s="2">
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>22</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>الكاتب</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Author:</t>
+          <t>الكاتب:</t>
         </r>
         <r>
           <rPr>
@@ -435,7 +435,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +443,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -451,7 +451,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -542,38 +542,17 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -595,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -884,18 +863,18 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.59765625" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="2"/>
+    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="2"/>
+    <col min="7" max="7" width="19.8984375" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.09765625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -909,7 +888,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="11">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
@@ -935,7 +914,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
         <v>2</v>
@@ -955,7 +934,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -972,7 +951,7 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="10"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -986,8 +965,8 @@
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11">
+      <c r="A6" s="11"/>
+      <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -1000,8 +979,8 @@
       <c r="H6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11">
+      <c r="A7" s="11"/>
+      <c r="B7" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
@@ -1013,17 +992,20 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11">
+      <c r="A8" s="11"/>
+      <c r="B8" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D8" s="2">
+        <v>12</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1036,8 +1018,8 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11">
+      <c r="A10" s="11"/>
+      <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -1049,8 +1031,8 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11">
+      <c r="A11" s="11"/>
+      <c r="B11" s="10">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -1059,8 +1041,8 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11">
+      <c r="A12" s="11"/>
+      <c r="B12" s="10">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
@@ -1069,11 +1051,11 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
+      <c r="A13" s="11">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
       </c>
-      <c r="B13" s="11">
+      <c r="B13" s="10">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
@@ -1082,8 +1064,8 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
@@ -1092,8 +1074,8 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11">
+      <c r="A15" s="11"/>
+      <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
@@ -1102,8 +1084,8 @@
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11">
+      <c r="A16" s="11"/>
+      <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
@@ -1112,8 +1094,8 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11">
+      <c r="A17" s="11"/>
+      <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -1122,8 +1104,8 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11">
+      <c r="A18" s="11"/>
+      <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
@@ -1132,8 +1114,8 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11">
+      <c r="A19" s="11"/>
+      <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
@@ -1142,8 +1124,8 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11">
+      <c r="A20" s="11"/>
+      <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
@@ -1152,8 +1134,8 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11">
+      <c r="A21" s="11"/>
+      <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
@@ -1162,11 +1144,11 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
+      <c r="A22" s="11">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
       </c>
-      <c r="B22" s="11">
+      <c r="B22" s="10">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
@@ -1175,8 +1157,8 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11">
+      <c r="A23" s="11"/>
+      <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
@@ -1185,8 +1167,8 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="10"/>
-      <c r="B24" s="11">
+      <c r="A24" s="11"/>
+      <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
@@ -1195,8 +1177,8 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="10"/>
-      <c r="B25" s="11">
+      <c r="A25" s="11"/>
+      <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
@@ -1205,8 +1187,8 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="10"/>
-      <c r="B26" s="11">
+      <c r="A26" s="11"/>
+      <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -1215,8 +1197,8 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="10"/>
-      <c r="B27" s="11">
+      <c r="A27" s="11"/>
+      <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
@@ -1225,8 +1207,8 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="10"/>
-      <c r="B28" s="11">
+      <c r="A28" s="11"/>
+      <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
@@ -1235,8 +1217,8 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="10"/>
-      <c r="B29" s="11">
+      <c r="A29" s="11"/>
+      <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
@@ -1245,8 +1227,8 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="10"/>
-      <c r="B30" s="11">
+      <c r="A30" s="11"/>
+      <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
@@ -1255,11 +1237,11 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="10">
+      <c r="A31" s="11">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B31" s="10">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
@@ -1268,8 +1250,8 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="10"/>
-      <c r="B32" s="11">
+      <c r="A32" s="11"/>
+      <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
@@ -1278,8 +1260,8 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="10"/>
-      <c r="B33" s="11">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
@@ -1288,8 +1270,8 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11">
+      <c r="A34" s="11"/>
+      <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
@@ -1298,8 +1280,8 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11">
+      <c r="A35" s="11"/>
+      <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
@@ -1308,8 +1290,8 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="10"/>
-      <c r="B36" s="11">
+      <c r="A36" s="11"/>
+      <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
@@ -1318,8 +1300,8 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="10"/>
-      <c r="B37" s="11">
+      <c r="A37" s="11"/>
+      <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
@@ -1328,8 +1310,8 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="10"/>
-      <c r="B38" s="11">
+      <c r="A38" s="11"/>
+      <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
@@ -1338,25 +1320,25 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39" s="11">
+      <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="10">
         <f>ROW()-1</f>
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41" s="11">
+      <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B42" s="11">
+      <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
@@ -1369,7 +1351,7 @@
     <mergeCell ref="A31:A38"/>
   </mergeCells>
   <conditionalFormatting sqref="A1:D1048576">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>الكاتب</author>
+    <author>Author</author>
   </authors>
   <commentList>
     <comment ref="C2" authorId="0" shapeId="0">
@@ -29,7 +29,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -53,7 +53,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -77,7 +77,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -101,7 +101,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -126,7 +126,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -150,7 +150,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -198,7 +198,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -222,7 +222,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -247,7 +247,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>الكاتب:</t>
+          <t>Author:</t>
         </r>
         <r>
           <rPr>
@@ -266,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -435,7 +435,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -443,7 +443,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -451,7 +451,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -574,7 +574,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="نسق Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -863,18 +863,18 @@
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="B7" sqref="B7:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="2"/>
-    <col min="3" max="3" width="48.59765625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="2"/>
-    <col min="7" max="7" width="19.8984375" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="2"/>
+    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
@@ -980,12 +980,15 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="10">
+      <c r="B7" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="5" t="s">
         <v>12</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>41</v>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -1,25 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1181D3E-4036-4909-A6C6-D2B13769F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -43,7 +53,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -67,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -91,7 +101,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -116,7 +126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -140,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -164,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -188,7 +198,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -212,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -266,7 +276,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -422,12 +432,15 @@
   </si>
   <si>
     <t>Code sql_queries.php</t>
+  </si>
+  <si>
+    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -649,6 +662,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -684,6 +714,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -859,25 +906,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:D7"/>
+      <selection activeCell="D11" sqref="B11:D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.5546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="2"/>
+    <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.88671875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="2"/>
+    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
       <c r="A1" s="8"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -887,7 +934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="11">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
@@ -913,7 +960,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
@@ -933,7 +980,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="11"/>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
@@ -950,7 +997,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="11"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -964,7 +1011,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="11"/>
       <c r="B6" s="10">
         <f t="shared" si="0"/>
@@ -978,7 +1025,7 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="11"/>
       <c r="B7" s="5">
         <f t="shared" si="0"/>
@@ -994,7 +1041,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="10">
         <f t="shared" si="0"/>
@@ -1007,7 +1054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -1020,7 +1067,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="10">
         <f t="shared" si="0"/>
@@ -1033,27 +1080,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
-      <c r="B11" s="10">
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
-      <c r="B12" s="10">
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
@@ -1066,7 +1119,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1076,7 +1129,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
@@ -1086,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
@@ -1096,7 +1149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
@@ -1106,7 +1159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1116,7 +1169,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
@@ -1126,7 +1179,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
@@ -1136,7 +1189,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
@@ -1146,7 +1199,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="11">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
@@ -1159,7 +1212,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="11"/>
       <c r="B23" s="10">
         <f t="shared" si="0"/>
@@ -1169,7 +1222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="11"/>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
@@ -1179,7 +1232,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="11"/>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
@@ -1189,7 +1242,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="11"/>
       <c r="B26" s="10">
         <f t="shared" si="0"/>
@@ -1199,7 +1252,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
@@ -1209,7 +1262,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
@@ -1219,7 +1272,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
@@ -1229,7 +1282,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
@@ -1239,7 +1292,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="11">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
@@ -1252,7 +1305,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
@@ -1262,7 +1315,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <f t="shared" si="0"/>
@@ -1272,7 +1325,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="11"/>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
@@ -1282,7 +1335,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="11"/>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
@@ -1292,7 +1345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="11"/>
       <c r="B36" s="10">
         <f t="shared" si="0"/>
@@ -1302,7 +1355,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="11"/>
       <c r="B37" s="10">
         <f t="shared" si="0"/>
@@ -1312,7 +1365,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="11"/>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
@@ -1322,25 +1375,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B40" s="10">
         <f>ROW()-1</f>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24701"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1181D3E-4036-4909-A6C6-D2B13769F67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -24,12 +23,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -53,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -77,7 +76,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -101,7 +100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -150,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -174,7 +173,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -198,7 +197,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -222,7 +221,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -247,7 +246,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -276,7 +275,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
   <si>
     <t>Design select_db.php file</t>
   </si>
@@ -440,7 +439,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
@@ -662,23 +661,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -714,23 +696,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -906,25 +871,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="B11:D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.5546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.109375" style="2"/>
-    <col min="3" max="3" width="48.5546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="2"/>
-    <col min="7" max="7" width="19.88671875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.109375" style="2"/>
+    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="2"/>
+    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="2"/>
+    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="8"/>
       <c r="B1" s="3"/>
       <c r="C1" s="4" t="s">
@@ -934,7 +899,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
@@ -960,7 +925,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="1">
         <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
@@ -980,7 +945,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
@@ -997,7 +962,7 @@
       </c>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="5">
         <f t="shared" si="0"/>
@@ -1011,7 +976,7 @@
       </c>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
       <c r="B6" s="10">
         <f t="shared" si="0"/>
@@ -1025,36 +990,36 @@
       </c>
       <c r="H6" s="1"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="5">
+      <c r="B7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="1" t="s">
         <v>45</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="10">
+      <c r="B8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="2">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
       <c r="B9" s="5">
         <f t="shared" si="0"/>
@@ -1067,7 +1032,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="11"/>
       <c r="B10" s="10">
         <f t="shared" si="0"/>
@@ -1080,7 +1045,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="11"/>
       <c r="B11" s="5">
         <f t="shared" si="0"/>
@@ -1093,7 +1058,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="11"/>
       <c r="B12" s="5">
         <f t="shared" si="0"/>
@@ -1106,7 +1071,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
@@ -1119,7 +1084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1129,7 +1094,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
@@ -1139,7 +1104,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
@@ -1149,7 +1114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
@@ -1159,7 +1124,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1169,7 +1134,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
@@ -1179,7 +1144,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
@@ -1189,7 +1154,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
@@ -1199,7 +1164,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
@@ -1212,7 +1177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="10">
         <f t="shared" si="0"/>
@@ -1222,7 +1187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
@@ -1232,7 +1197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
@@ -1242,7 +1207,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
       <c r="B26" s="10">
         <f t="shared" si="0"/>
@@ -1252,7 +1217,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
@@ -1262,7 +1227,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
@@ -1272,7 +1237,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
@@ -1282,7 +1247,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
@@ -1292,7 +1257,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
@@ -1305,7 +1270,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
@@ -1315,7 +1280,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="10">
         <f t="shared" si="0"/>
@@ -1325,7 +1290,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
@@ -1335,7 +1300,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
@@ -1345,7 +1310,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="10">
         <f t="shared" si="0"/>
@@ -1355,7 +1320,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="10">
         <f t="shared" si="0"/>
@@ -1365,7 +1330,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
@@ -1375,25 +1340,25 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" s="10">
         <f>ROW()-1</f>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>

--- a/Update.xlsx
+++ b/Update.xlsx
@@ -1,24 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -28,13 +19,12 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0" shapeId="0">
+    <comment ref="C2" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -43,22 +33,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-form with table to select the databases those user created</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>form with table to select the databases those user created</t>
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0" shapeId="0">
+    <comment ref="C3" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -67,22 +63,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-choose what tables from souq database, create design, make relations</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>choose what tables from souq database, create design, make relations</t>
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0" shapeId="0">
+    <comment ref="C4" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -91,22 +93,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-script : after click a button from select_db form it will take the name fom input to create a database</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>script : after click a button from select_db form it will take the name fom input to create a database</t>
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0" shapeId="0">
+    <comment ref="C6" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -115,23 +123,29 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-script : make action to select the DB that choosed from select_db file and alter setting file
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">script : make action to select the DB that choosed from select_db file and alter setting file
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0" shapeId="0">
+    <comment ref="C7" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -140,22 +154,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-make function to backup current database with name</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>make function to backup current database with name</t>
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0" shapeId="0">
+    <comment ref="C8" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -164,22 +184,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-make function to restore the backup database from PC</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>make function to restore the backup database from PC</t>
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -188,22 +214,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-contain form with the oppening fund for COM and button</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>contain form with the oppening fund for COM and button</t>
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0" shapeId="0">
+    <comment ref="C10" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -212,22 +244,28 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-add fund to database from the form</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>add fund to database from the form</t>
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -236,23 +274,29 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-form contain account details and address and fund input fields
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">form contain account details and address and fund input fields
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -261,12 +305,19 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">
-form contain category input fields</t>
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>form contain category input fields</t>
         </r>
       </text>
     </comment>
@@ -275,33 +326,111 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+  <si>
+    <t>Messions</t>
+  </si>
+  <si>
+    <t>Eng.</t>
+  </si>
   <si>
     <t>Design select_db.php file</t>
   </si>
   <si>
+    <t>S+R</t>
+  </si>
+  <si>
+    <t>problem</t>
+  </si>
+  <si>
+    <t>Other :</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>Check DataBase tables and relations</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>delete</t>
+  </si>
+  <si>
+    <t>Code create_db.php &amp; drop_db.php file</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>in-progress</t>
+  </si>
+  <si>
+    <t>Code sql_queries.php</t>
+  </si>
+  <si>
     <t>Code select_db.php file</t>
   </si>
   <si>
-    <t>Check DataBase tables and relations</t>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Code create_backup.php script file</t>
+  </si>
+  <si>
+    <t>next-days</t>
+  </si>
+  <si>
+    <t>Code restore_backup.php script file</t>
+  </si>
+  <si>
+    <t>Design open_box_account.php</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>Code open_box_account.php</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Design create_account.php file</t>
   </si>
   <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Design create_category.php file</t>
+  </si>
+  <si>
     <t>Code create_account.php file</t>
   </si>
   <si>
+    <t>Code create_category.php file</t>
+  </si>
+  <si>
     <t>Design create_item.php file</t>
   </si>
   <si>
     <t>Code create_item.php file</t>
   </si>
   <si>
-    <t>Design create_category.php file</t>
-  </si>
-  <si>
-    <t>Code create_category.php file</t>
+    <t>Design accounts.php file</t>
+  </si>
+  <si>
+    <t>Code accounts.php file</t>
+  </si>
+  <si>
+    <t>Design items.php file</t>
+  </si>
+  <si>
+    <t>Code items.php file</t>
   </si>
   <si>
     <t>Design bills.php file</t>
@@ -313,21 +442,6 @@
     <t>Code printing functions</t>
   </si>
   <si>
-    <t>Code create_backup.php script file</t>
-  </si>
-  <si>
-    <t>Design accounts.php file</t>
-  </si>
-  <si>
-    <t>Code accounts.php file</t>
-  </si>
-  <si>
-    <t>Design items.php file</t>
-  </si>
-  <si>
-    <t>Code items.php file</t>
-  </si>
-  <si>
     <t>Design bond_in.php file</t>
   </si>
   <si>
@@ -340,15 +454,15 @@
     <t>Code bond_out.php file</t>
   </si>
   <si>
+    <t>make test data to insert into DB</t>
+  </si>
+  <si>
+    <t>insert test data in DB</t>
+  </si>
+  <si>
     <t>Design movement_com.php file</t>
   </si>
   <si>
-    <t>Design open_box_account.php</t>
-  </si>
-  <si>
-    <t>Code open_box_account.php</t>
-  </si>
-  <si>
     <t>Code movement_com.php file</t>
   </si>
   <si>
@@ -367,88 +481,37 @@
     <t>Code setting.php file</t>
   </si>
   <si>
-    <t>make test data to insert into DB</t>
-  </si>
-  <si>
-    <t>insert test data in DB</t>
-  </si>
-  <si>
     <t>Test All App</t>
   </si>
   <si>
     <t>Style pages</t>
-  </si>
-  <si>
-    <t>Code restore_backup.php script file</t>
-  </si>
-  <si>
-    <t>Messions</t>
-  </si>
-  <si>
-    <t>problem</t>
-  </si>
-  <si>
-    <t>todo</t>
-  </si>
-  <si>
-    <t>in-progress</t>
-  </si>
-  <si>
-    <t>done</t>
-  </si>
-  <si>
-    <t>Eng.</t>
-  </si>
-  <si>
-    <t>next-days</t>
-  </si>
-  <si>
-    <t>Other :</t>
-  </si>
-  <si>
-    <t>update</t>
-  </si>
-  <si>
-    <t>delete</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Code create_db.php &amp; drop_db.php file</t>
-  </si>
-  <si>
-    <t>S+R</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Code sql_queries.php</t>
-  </si>
-  <si>
-    <t>R</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -456,32 +519,162 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="16"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -490,18 +683,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -512,8 +705,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -521,67 +900,346 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -628,7 +1286,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -663,7 +1321,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -866,213 +1524,203 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.5703125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="2"/>
-    <col min="3" max="3" width="48.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.85546875" style="2" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="2"/>
-    <col min="7" max="7" width="19.85546875" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="35.5714285714286" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.14285714285714" style="3"/>
+    <col min="3" max="3" width="48.5714285714286" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.8571428571429" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.14285714285714" style="3"/>
+    <col min="7" max="7" width="19.8571428571429" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.14285714285714" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="4" customFormat="1" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
+    <row r="1" s="1" customFormat="1" ht="21" spans="1:4">
+      <c r="A1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="2">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="6">
         <f>ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="J2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="1">
+      <c r="C2" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="J2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="8">
         <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="K3" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="1">
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" s="9"/>
+      <c r="K3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8">
+      <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="5">
+      <c r="C4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
+      <c r="C5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="2:8">
       <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="1">
+      <c r="C6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="1">
+      <c r="G7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="5">
+      <c r="C8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="10">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="5">
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="5">
+      <c r="C11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="11">
+      <c r="C12" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
       </c>
@@ -1080,92 +1728,84 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
+      <c r="C13" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3">
       <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3">
       <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
+      <c r="C15" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3">
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="C16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3">
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="C17" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3">
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="C18" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3">
       <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3">
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="C20" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3">
       <c r="B21" s="10">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="11">
+      <c r="C21" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
       </c>
@@ -1173,92 +1813,84 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="C22" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3">
       <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="C23" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3">
       <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="C24" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3">
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="C25" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3">
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="C26" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3">
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="C27" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3">
       <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="C28" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3">
       <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="C29" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3">
       <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="11">
+      <c r="C30" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
       </c>
@@ -1266,99 +1898,92 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="C31" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3">
       <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="C32" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="C33" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3">
       <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3">
       <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="11"/>
+      <c r="C35" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3">
       <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="11"/>
+      <c r="C36" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
+      <c r="C37" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3">
       <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2">
       <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:2">
       <c r="B40" s="10">
-        <f>ROW()-1</f>
+        <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:2">
       <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:2">
       <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1371,12 +1996,12 @@
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A38"/>
   </mergeCells>
-  <conditionalFormatting sqref="A1:D1048576">
+  <conditionalFormatting sqref="A:D">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A1:C1048576">
+  <conditionalFormatting sqref="A:C">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -1386,8 +2011,9 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Update.xlsx
+++ b/Update.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AFIF TEC\Desktop\git_project\AlHall\Update_AlHal\www\www\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -19,7 +24,7 @@
     <author>Author</author>
   </authors>
   <commentList>
-    <comment ref="C2" authorId="0">
+    <comment ref="C2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C3" authorId="0">
+    <comment ref="C3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -79,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -109,7 +114,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C6" authorId="0">
+    <comment ref="C6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -140,7 +145,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C7" authorId="0">
+    <comment ref="C7" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -170,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C8" authorId="0">
+    <comment ref="C8" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -200,7 +205,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="C9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +235,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C10" authorId="0">
+    <comment ref="C10" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -260,7 +265,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +296,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0">
+    <comment ref="C12" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -326,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>Messions</t>
   </si>
@@ -490,19 +495,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -510,7 +511,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -518,163 +519,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="37">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -705,194 +566,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -900,264 +575,22 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1178,57 +611,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
-    <cellStyle name="Note" xfId="9" builtinId="10"/>
-    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
-    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
-    <cellStyle name="Title" xfId="16" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
-    <cellStyle name="Input" xfId="21" builtinId="20"/>
-    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
-    <cellStyle name="Good" xfId="23" builtinId="26"/>
-    <cellStyle name="Output" xfId="24" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
-    <cellStyle name="Total" xfId="28" builtinId="25"/>
-    <cellStyle name="Bad" xfId="29" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
-    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
-    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -1240,6 +628,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1524,30 +920,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="35.5714285714286" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.14285714285714" style="3"/>
-    <col min="3" max="3" width="48.5714285714286" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.8571428571429" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.14285714285714" style="3"/>
-    <col min="7" max="7" width="19.8571428571429" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.14285714285714" style="3"/>
+    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.09765625" style="3"/>
+    <col min="3" max="3" width="48.59765625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.8984375" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.09765625" style="3"/>
+    <col min="7" max="7" width="19.8984375" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.09765625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="21" spans="1:4">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
       <c r="A1" s="4"/>
       <c r="B1" s="5"/>
       <c r="C1" s="1" t="s">
@@ -1558,7 +954,7 @@
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="2">
+      <c r="A2" s="11">
         <f>DATE(2021,12,14)</f>
         <v>44544</v>
       </c>
@@ -1583,7 +979,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:11">
+    <row r="3" spans="1:11">
+      <c r="A3" s="11"/>
       <c r="B3" s="8">
         <f t="shared" ref="B3:B42" si="0">ROW()-1</f>
         <v>2</v>
@@ -1602,7 +999,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="1:11">
+      <c r="A4" s="11"/>
       <c r="B4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -1618,7 +1016,8 @@
       </c>
       <c r="H4" s="6"/>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="1:11">
+      <c r="A5" s="11"/>
       <c r="B5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -1631,7 +1030,8 @@
       </c>
       <c r="H5" s="6"/>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="1:11">
+      <c r="A6" s="11"/>
       <c r="B6" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1644,7 +1044,8 @@
       </c>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="1:11">
+      <c r="A7" s="11"/>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1659,7 +1060,8 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:4">
+    <row r="8" spans="1:11">
+      <c r="A8" s="11"/>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1671,7 +1073,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="2:4">
+    <row r="9" spans="1:11">
+      <c r="A9" s="11"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -1683,7 +1086,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:11">
+      <c r="A10" s="11"/>
       <c r="B10" s="10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1695,7 +1099,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="2:4">
+    <row r="11" spans="1:11">
+      <c r="A11" s="11"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1707,7 +1112,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="2:4">
+    <row r="12" spans="1:11">
+      <c r="A12" s="11"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1719,8 +1125,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:11">
+      <c r="A13" s="11">
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
       </c>
@@ -1732,7 +1138,8 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="2:3">
+    <row r="14" spans="1:11">
+      <c r="A14" s="11"/>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -1741,7 +1148,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="2:3">
+    <row r="15" spans="1:11">
+      <c r="A15" s="11"/>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -1750,7 +1158,8 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="2:3">
+    <row r="16" spans="1:11">
+      <c r="A16" s="11"/>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -1759,7 +1168,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="1:4">
+      <c r="A17" s="11"/>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -1768,7 +1178,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="1:4">
+      <c r="A18" s="11"/>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -1777,7 +1188,8 @@
         <v>32</v>
       </c>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="1:4">
+      <c r="A19" s="11"/>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -1786,7 +1198,8 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="1:4">
+      <c r="A20" s="11"/>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -1795,17 +1208,21 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="2:3">
-      <c r="B21" s="10">
+    <row r="21" spans="1:4">
+      <c r="A21" s="11"/>
+      <c r="B21" s="8">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="2">
+      <c r="D21" s="8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="11">
         <f>DATE(2021,12,16)</f>
         <v>44546</v>
       </c>
@@ -1817,7 +1234,8 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="1:4">
+      <c r="A23" s="11"/>
       <c r="B23" s="10">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -1826,7 +1244,8 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="1:4">
+      <c r="A24" s="11"/>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -1835,7 +1254,8 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="1:4">
+      <c r="A25" s="11"/>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -1844,7 +1264,8 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="1:4">
+      <c r="A26" s="11"/>
       <c r="B26" s="10">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -1853,7 +1274,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="1:4">
+      <c r="A27" s="11"/>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -1862,7 +1284,8 @@
         <v>41</v>
       </c>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="1:4">
+      <c r="A28" s="11"/>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -1871,7 +1294,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="1:4">
+      <c r="A29" s="11"/>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -1880,7 +1304,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="2:3">
+    <row r="30" spans="1:4">
+      <c r="A30" s="11"/>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -1889,8 +1314,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:4">
+      <c r="A31" s="11">
         <f>DATE(2021,12,18)</f>
         <v>44548</v>
       </c>
@@ -1902,7 +1327,8 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="2:3">
+    <row r="32" spans="1:4">
+      <c r="A32" s="11"/>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -1911,7 +1337,8 @@
         <v>46</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
+      <c r="A33" s="11"/>
       <c r="B33" s="10">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -1920,7 +1347,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
+      <c r="A34" s="11"/>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -1929,7 +1357,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
+      <c r="A35" s="11"/>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -1938,7 +1367,8 @@
         <v>49</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3">
+      <c r="A36" s="11"/>
       <c r="B36" s="10">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -1947,7 +1377,8 @@
         <v>50</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
+      <c r="A37" s="11"/>
       <c r="B37" s="10">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -1956,7 +1387,8 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3">
+      <c r="A38" s="11"/>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -1965,25 +1397,25 @@
         <v>52</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
+    <row r="39" spans="1:3">
       <c r="B39" s="10">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
+    <row r="40" spans="1:3">
       <c r="B40" s="10">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
+    <row r="41" spans="1:3">
       <c r="B41" s="10">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
+    <row r="42" spans="1:3">
       <c r="B42" s="10">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -1996,12 +1428,12 @@
     <mergeCell ref="A22:A30"/>
     <mergeCell ref="A31:A38"/>
   </mergeCells>
-  <conditionalFormatting sqref="A:D">
+  <conditionalFormatting sqref="A1:D1048576">
     <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A:C">
+  <conditionalFormatting sqref="A1:C1048576">
     <cfRule type="iconSet" priority="1">
       <iconSet iconSet="4TrafficLights">
         <cfvo type="percent" val="0"/>
@@ -2011,9 +1443,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Update.xlsx
+++ b/Update.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AFIF TEC\Desktop\git_project\AlHall\Update_AlHal\www\www\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\alHal\Update_AlHal\www\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20388" windowHeight="8376"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -331,7 +331,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="53">
   <si>
     <t>Messions</t>
   </si>
@@ -497,13 +497,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -511,7 +511,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -519,7 +519,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -584,13 +584,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -611,7 +611,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -928,19 +928,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.09765625" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="35.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="3"/>
-    <col min="3" max="3" width="48.59765625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.8984375" style="3" customWidth="1"/>
-    <col min="5" max="6" width="9.09765625" style="3"/>
-    <col min="7" max="7" width="19.8984375" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.09765625" style="3"/>
+    <col min="1" max="1" width="35.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="3"/>
+    <col min="3" max="3" width="48.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" style="3" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="3"/>
+    <col min="7" max="7" width="19.85546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="1" customFormat="1" ht="21">
@@ -1032,12 +1032,15 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="11"/>
-      <c r="B6" s="10">
+      <c r="B6" s="8">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>16</v>
@@ -1088,12 +1091,15 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="11"/>
-      <c r="B10" s="10">
+      <c r="B10" s="8">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>22</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
@@ -1130,22 +1136,28 @@
         <f>DATE(2021,12,15)</f>
         <v>44545</v>
       </c>
-      <c r="B13" s="10">
+      <c r="B13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="8" t="s">
         <v>27</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="11"/>
-      <c r="B14" s="10">
+      <c r="B14" s="8">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="8" t="s">
         <v>28</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:11">
